--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H2">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N2">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O2">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P2">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q2">
-        <v>4.498170793644</v>
+        <v>22.7032741104505</v>
       </c>
       <c r="R2">
-        <v>17.992683174576</v>
+        <v>90.813096441802</v>
       </c>
       <c r="S2">
-        <v>0.002755585958498986</v>
+        <v>0.009470483143362842</v>
       </c>
       <c r="T2">
-        <v>0.001510906795997077</v>
+        <v>0.005216643937937264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H3">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I3">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J3">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P3">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q3">
-        <v>7.394159584262</v>
+        <v>8.340460526156502</v>
       </c>
       <c r="R3">
-        <v>44.364957505572</v>
+        <v>50.04276315693901</v>
       </c>
       <c r="S3">
-        <v>0.004529672895943317</v>
+        <v>0.00347915417118139</v>
       </c>
       <c r="T3">
-        <v>0.003725476358857182</v>
+        <v>0.002874643496244781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H4">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I4">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J4">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N4">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O4">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P4">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q4">
-        <v>63.75087188547734</v>
+        <v>68.34390459848467</v>
       </c>
       <c r="R4">
-        <v>382.505231312864</v>
+        <v>410.063427590908</v>
       </c>
       <c r="S4">
-        <v>0.03905387666869287</v>
+        <v>0.02850909491303781</v>
       </c>
       <c r="T4">
-        <v>0.03212026510374316</v>
+        <v>0.02355557708664602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H5">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I5">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J5">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N5">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O5">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P5">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q5">
-        <v>75.458055094983</v>
+        <v>107.816623438482</v>
       </c>
       <c r="R5">
-        <v>301.832220379932</v>
+        <v>431.266493753928</v>
       </c>
       <c r="S5">
-        <v>0.04622571409898188</v>
+        <v>0.04497481331903726</v>
       </c>
       <c r="T5">
-        <v>0.0253458780215349</v>
+        <v>0.02477356051523537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H6">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I6">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J6">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N6">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O6">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P6">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q6">
-        <v>14.12577557438667</v>
+        <v>70.72255437432034</v>
       </c>
       <c r="R6">
-        <v>84.75465344631999</v>
+        <v>424.335326245922</v>
       </c>
       <c r="S6">
-        <v>0.008653470624256707</v>
+        <v>0.02950132900651801</v>
       </c>
       <c r="T6">
-        <v>0.007117136484977853</v>
+        <v>0.02437540832815915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H7">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I7">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J7">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N7">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O7">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P7">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q7">
-        <v>58.567749672322</v>
+        <v>85.49968027919033</v>
       </c>
       <c r="R7">
-        <v>351.406498033932</v>
+        <v>512.998081675142</v>
       </c>
       <c r="S7">
-        <v>0.03587868847620883</v>
+        <v>0.03566548493876759</v>
       </c>
       <c r="T7">
-        <v>0.02950879870920159</v>
+        <v>0.02946852863517416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J8">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N8">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O8">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P8">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q8">
-        <v>4.48385831035</v>
+        <v>20.06333940214167</v>
       </c>
       <c r="R8">
-        <v>26.9031498621</v>
+        <v>120.38003641285</v>
       </c>
       <c r="S8">
-        <v>0.002746818110454637</v>
+        <v>0.008369256199927889</v>
       </c>
       <c r="T8">
-        <v>0.002259148986617589</v>
+        <v>0.006915079562386741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J9">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.465949</v>
       </c>
       <c r="O9">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P9">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q9">
         <v>7.370632512841667</v>
@@ -1013,10 +1013,10 @@
         <v>66.335692615575</v>
       </c>
       <c r="S9">
-        <v>0.004515260177835308</v>
+        <v>0.00307459843145082</v>
       </c>
       <c r="T9">
-        <v>0.005570433704499844</v>
+        <v>0.003810570306604143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J10">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N10">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O10">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P10">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q10">
-        <v>63.54802647771112</v>
+        <v>60.39688140821112</v>
       </c>
       <c r="R10">
-        <v>571.9322382994001</v>
+        <v>543.5719326738999</v>
       </c>
       <c r="S10">
-        <v>0.03892961327741026</v>
+        <v>0.02519405987460008</v>
       </c>
       <c r="T10">
-        <v>0.04802709508704205</v>
+        <v>0.03122480499531655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J11">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N11">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O11">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P11">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q11">
-        <v>75.2179592421375</v>
+        <v>95.2797159879</v>
       </c>
       <c r="R11">
-        <v>451.307755452825</v>
+        <v>571.6782959274</v>
       </c>
       <c r="S11">
-        <v>0.04607863103096461</v>
+        <v>0.03974514599867555</v>
       </c>
       <c r="T11">
-        <v>0.03789784704058898</v>
+        <v>0.03283933962995261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J12">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N12">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O12">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P12">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q12">
-        <v>14.08082954272222</v>
+        <v>62.49894199820555</v>
       </c>
       <c r="R12">
-        <v>126.7274658845</v>
+        <v>562.4904779838499</v>
       </c>
       <c r="S12">
-        <v>0.008625936620007739</v>
+        <v>0.02607091707532895</v>
       </c>
       <c r="T12">
-        <v>0.01064173628727783</v>
+        <v>0.03231155700105824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J13">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N13">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O13">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P13">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q13">
-        <v>58.38139615725834</v>
+        <v>75.55778500803888</v>
       </c>
       <c r="R13">
-        <v>525.432565415325</v>
+        <v>680.0200650723499</v>
       </c>
       <c r="S13">
-        <v>0.03576452804233825</v>
+        <v>0.03151830550022227</v>
       </c>
       <c r="T13">
-        <v>0.04412235941807503</v>
+        <v>0.03906289609240184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H14">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I14">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J14">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N14">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O14">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P14">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q14">
-        <v>8.964277137630001</v>
+        <v>38.85009024751866</v>
       </c>
       <c r="R14">
-        <v>53.78566282578</v>
+        <v>233.100541485112</v>
       </c>
       <c r="S14">
-        <v>0.005491529188587251</v>
+        <v>0.016205994034926</v>
       </c>
       <c r="T14">
-        <v>0.00451656502269253</v>
+        <v>0.01339016699477354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H15">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I15">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J15">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.465949</v>
       </c>
       <c r="O15">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P15">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q15">
-        <v>14.735611152615</v>
+        <v>14.27228700894267</v>
       </c>
       <c r="R15">
-        <v>132.620500373535</v>
+        <v>128.450583080484</v>
       </c>
       <c r="S15">
-        <v>0.009027056784820827</v>
+        <v>0.005953566559512675</v>
       </c>
       <c r="T15">
-        <v>0.01113659443445565</v>
+        <v>0.007378681950138528</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H16">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I16">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J16">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N16">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O16">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P16">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q16">
-        <v>127.04730646388</v>
+        <v>116.9508348708498</v>
       </c>
       <c r="R16">
-        <v>1143.42575817492</v>
+        <v>1052.557513837648</v>
       </c>
       <c r="S16">
-        <v>0.07782936438333303</v>
+        <v>0.04878507412007</v>
       </c>
       <c r="T16">
-        <v>0.09601734949602971</v>
+        <v>0.06046284059271451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H17">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I17">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J17">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N17">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O17">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P17">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q17">
-        <v>150.3782202075975</v>
+        <v>184.496981818128</v>
       </c>
       <c r="R17">
-        <v>902.269321245585</v>
+        <v>1106.981890908768</v>
       </c>
       <c r="S17">
-        <v>0.0921219160138719</v>
+        <v>0.07696139102269908</v>
       </c>
       <c r="T17">
-        <v>0.07576662335809452</v>
+        <v>0.06358918038122748</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H18">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I18">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J18">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N18">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O18">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P18">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q18">
-        <v>28.1508579469</v>
+        <v>121.0212063075369</v>
       </c>
       <c r="R18">
-        <v>253.3577215221</v>
+        <v>1089.190856767832</v>
       </c>
       <c r="S18">
-        <v>0.01724525644686237</v>
+        <v>0.05048299592160552</v>
       </c>
       <c r="T18">
-        <v>0.02127530949952919</v>
+        <v>0.06256719683438931</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H19">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I19">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J19">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N19">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O19">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P19">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q19">
-        <v>116.718009047565</v>
+        <v>146.3079853073502</v>
       </c>
       <c r="R19">
-        <v>1050.462081428085</v>
+        <v>1316.771867766152</v>
       </c>
       <c r="S19">
-        <v>0.07150162179032687</v>
+        <v>0.06103116677584543</v>
       </c>
       <c r="T19">
-        <v>0.08821087340711929</v>
+        <v>0.07564030135268804</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H20">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I20">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J20">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N20">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O20">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P20">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q20">
-        <v>3.360582395139</v>
+        <v>14.771761195121</v>
       </c>
       <c r="R20">
-        <v>13.442329580556</v>
+        <v>59.087044780484</v>
       </c>
       <c r="S20">
-        <v>0.002058697654057289</v>
+        <v>0.006161918087919295</v>
       </c>
       <c r="T20">
-        <v>0.001128798129786066</v>
+        <v>0.003394180862033199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H21">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I21">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J21">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.465949</v>
       </c>
       <c r="O21">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P21">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q21">
-        <v>5.524174973709499</v>
+        <v>5.426675049173</v>
       </c>
       <c r="R21">
-        <v>33.145049842257</v>
+        <v>32.560050295038</v>
       </c>
       <c r="S21">
-        <v>0.003384117608729943</v>
+        <v>0.002263692643081991</v>
       </c>
       <c r="T21">
-        <v>0.002783302555512712</v>
+        <v>0.001870371076922747</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H22">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I22">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J22">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N22">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O22">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P22">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q22">
-        <v>47.62826214509733</v>
+        <v>44.46758793288934</v>
       </c>
       <c r="R22">
-        <v>285.769572870584</v>
+        <v>266.805527597336</v>
       </c>
       <c r="S22">
-        <v>0.02917714253540326</v>
+        <v>0.018549286763471</v>
       </c>
       <c r="T22">
-        <v>0.02399704288404567</v>
+        <v>0.01532630746756617</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H23">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I23">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J23">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N23">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O23">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P23">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q23">
-        <v>56.37469610579174</v>
+        <v>70.15029667304401</v>
       </c>
       <c r="R23">
-        <v>225.498784423167</v>
+        <v>280.601186692176</v>
       </c>
       <c r="S23">
-        <v>0.03453522067754142</v>
+        <v>0.02926261643637367</v>
       </c>
       <c r="T23">
-        <v>0.01893589980817698</v>
+        <v>0.01611878172741113</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H24">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I24">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J24">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N24">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O24">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P24">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q24">
-        <v>10.55336377623667</v>
+        <v>46.01524340692067</v>
       </c>
       <c r="R24">
-        <v>63.32018265741999</v>
+        <v>276.091460441524</v>
       </c>
       <c r="S24">
-        <v>0.006465005970387154</v>
+        <v>0.01919487845246004</v>
       </c>
       <c r="T24">
-        <v>0.005317211078115181</v>
+        <v>0.01585972618334324</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H25">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I25">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J25">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N25">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O25">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P25">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q25">
-        <v>43.7559526974445</v>
+        <v>55.62989959946066</v>
       </c>
       <c r="R25">
-        <v>262.535716184667</v>
+        <v>333.779397596764</v>
       </c>
       <c r="S25">
-        <v>0.02680496014606564</v>
+        <v>0.02320555281412692</v>
       </c>
       <c r="T25">
-        <v>0.02204601692402783</v>
+        <v>0.01917353707014464</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H26">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I26">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J26">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N26">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O26">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P26">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q26">
-        <v>2.898603813686</v>
+        <v>12.06440006844233</v>
       </c>
       <c r="R26">
-        <v>17.391622882116</v>
+        <v>72.38640041065401</v>
       </c>
       <c r="S26">
-        <v>0.001775688904372202</v>
+        <v>0.005032564771368189</v>
       </c>
       <c r="T26">
-        <v>0.001460433719142979</v>
+        <v>0.004158145594488494</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H27">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I27">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J27">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.465949</v>
       </c>
       <c r="O27">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P27">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q27">
-        <v>4.764767758536333</v>
+        <v>4.432076715150334</v>
       </c>
       <c r="R27">
-        <v>42.882909826827</v>
+        <v>39.88869043635301</v>
       </c>
       <c r="S27">
-        <v>0.002918903646229698</v>
+        <v>0.001848804168804942</v>
       </c>
       <c r="T27">
-        <v>0.003601023775099602</v>
+        <v>0.002291355578767313</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H28">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I28">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J28">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N28">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O28">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P28">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q28">
-        <v>41.08081459115822</v>
+        <v>36.31759028694623</v>
       </c>
       <c r="R28">
-        <v>369.727331320424</v>
+        <v>326.858312582516</v>
       </c>
       <c r="S28">
-        <v>0.02516616665846748</v>
+        <v>0.01514958260851731</v>
       </c>
       <c r="T28">
-        <v>0.03104726138607482</v>
+        <v>0.01877596405922255</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H29">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I29">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J29">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N29">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O29">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P29">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q29">
-        <v>48.62487804613949</v>
+        <v>57.29318480067601</v>
       </c>
       <c r="R29">
-        <v>291.749268276837</v>
+        <v>343.759108804056</v>
       </c>
       <c r="S29">
-        <v>0.02978767088323948</v>
+        <v>0.02389937848808396</v>
       </c>
       <c r="T29">
-        <v>0.02449917824316023</v>
+        <v>0.01974680901011475</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H30">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I30">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J30">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N30">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O30">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P30">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q30">
-        <v>9.102594994624443</v>
+        <v>37.58159222687711</v>
       </c>
       <c r="R30">
-        <v>81.92335495162</v>
+        <v>338.2343300418941</v>
       </c>
       <c r="S30">
-        <v>0.005576262908587862</v>
+        <v>0.0156768505702684</v>
       </c>
       <c r="T30">
-        <v>0.006879382721649036</v>
+        <v>0.01942944505307198</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H31">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I31">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J31">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N31">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O31">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P31">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q31">
-        <v>37.74083073925966</v>
+        <v>45.43407896120377</v>
       </c>
       <c r="R31">
-        <v>339.667476653337</v>
+        <v>408.906710650834</v>
       </c>
       <c r="S31">
-        <v>0.02312008770190365</v>
+        <v>0.0189524505074902</v>
       </c>
       <c r="T31">
-        <v>0.02852303316160622</v>
+        <v>0.02348913093901121</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H32">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I32">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J32">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.500046</v>
+        <v>2.237491</v>
       </c>
       <c r="N32">
-        <v>1.000092</v>
+        <v>4.474982</v>
       </c>
       <c r="O32">
-        <v>0.02009953378395692</v>
+        <v>0.06247005729474239</v>
       </c>
       <c r="P32">
-        <v>0.01521121714331422</v>
+        <v>0.04731033530095431</v>
       </c>
       <c r="Q32">
-        <v>8.604638387242</v>
+        <v>41.304524645727</v>
       </c>
       <c r="R32">
-        <v>51.627830323452</v>
+        <v>247.827147874362</v>
       </c>
       <c r="S32">
-        <v>0.005271213967986553</v>
+        <v>0.01722984105723818</v>
       </c>
       <c r="T32">
-        <v>0.004335364489077978</v>
+        <v>0.01423611834933507</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H33">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I33">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J33">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.465949</v>
       </c>
       <c r="O33">
-        <v>0.03303991048491191</v>
+        <v>0.02294951135236041</v>
       </c>
       <c r="P33">
-        <v>0.03750663509291002</v>
+        <v>0.02607046777507775</v>
       </c>
       <c r="Q33">
-        <v>14.14443166320767</v>
+        <v>15.173968110651</v>
       </c>
       <c r="R33">
-        <v>127.299884968869</v>
+        <v>136.565712995859</v>
       </c>
       <c r="S33">
-        <v>0.008664899371352818</v>
+        <v>0.006329695378328588</v>
       </c>
       <c r="T33">
-        <v>0.01068980426448502</v>
+        <v>0.007844845366400236</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H34">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I34">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J34">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.086962666666667</v>
+        <v>6.735542666666666</v>
       </c>
       <c r="N34">
-        <v>21.260888</v>
+        <v>20.206628</v>
       </c>
       <c r="O34">
-        <v>0.2848630836849172</v>
+        <v>0.1880542698486155</v>
       </c>
       <c r="P34">
-        <v>0.3233742335981926</v>
+        <v>0.2136281991707792</v>
       </c>
       <c r="Q34">
-        <v>121.9502825951031</v>
+        <v>124.339444528572</v>
       </c>
       <c r="R34">
-        <v>1097.552543355928</v>
+        <v>1119.055000757148</v>
       </c>
       <c r="S34">
-        <v>0.07470692016161028</v>
+        <v>0.05186717156891932</v>
       </c>
       <c r="T34">
-        <v>0.09216521964125711</v>
+        <v>0.06428270496931333</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H35">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I35">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J35">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.3884095</v>
+        <v>10.625724</v>
       </c>
       <c r="N35">
-        <v>16.776819</v>
+        <v>21.251448</v>
       </c>
       <c r="O35">
-        <v>0.3371752201575758</v>
+        <v>0.2966669305387684</v>
       </c>
       <c r="P35">
-        <v>0.2551723609258745</v>
+        <v>0.224674228971378</v>
       </c>
       <c r="Q35">
-        <v>144.3451810265565</v>
+        <v>196.152958307628</v>
       </c>
       <c r="R35">
-        <v>866.071086159339</v>
+        <v>1176.917749845768</v>
       </c>
       <c r="S35">
-        <v>0.08842606745297653</v>
+        <v>0.0818235852738988</v>
       </c>
       <c r="T35">
-        <v>0.07272693445431891</v>
+        <v>0.06760655770743659</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H36">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I36">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J36">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.570313333333333</v>
+        <v>6.969967333333333</v>
       </c>
       <c r="N36">
-        <v>4.71094</v>
+        <v>20.909902</v>
       </c>
       <c r="O36">
-        <v>0.06311932481158</v>
+        <v>0.1945993341004796</v>
       </c>
       <c r="P36">
-        <v>0.07165253925551318</v>
+        <v>0.221063341646982</v>
       </c>
       <c r="Q36">
-        <v>27.02147080068222</v>
+        <v>128.666970056898</v>
       </c>
       <c r="R36">
-        <v>243.19323720614</v>
+        <v>1158.002730512082</v>
       </c>
       <c r="S36">
-        <v>0.01655339224147816</v>
+        <v>0.05367236307429865</v>
       </c>
       <c r="T36">
-        <v>0.02042176318396408</v>
+        <v>0.0665200082469601</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H37">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I37">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J37">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.510773</v>
+        <v>8.426307333333332</v>
       </c>
       <c r="N37">
-        <v>19.532319</v>
+        <v>25.278922</v>
       </c>
       <c r="O37">
-        <v>0.2617029270770581</v>
+        <v>0.2352598968650338</v>
       </c>
       <c r="P37">
-        <v>0.2970830139841956</v>
+        <v>0.2672534271348288</v>
       </c>
       <c r="Q37">
-        <v>112.0353873172043</v>
+        <v>155.551293355878</v>
       </c>
       <c r="R37">
-        <v>1008.318485854839</v>
+        <v>1399.961640202902</v>
       </c>
       <c r="S37">
-        <v>0.06863304092021479</v>
+        <v>0.06488693632858135</v>
       </c>
       <c r="T37">
-        <v>0.08467193236416559</v>
+        <v>0.08041903304540889</v>
       </c>
     </row>
   </sheetData>
